--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C86812E-10DB-4ECC-BE23-710B03893EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9A91A7D-1CC1-4F66-A2EA-1E52A848A882}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,54 +86,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1층_Hp상점_슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층_골드상점_슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층_선택지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1층_시작무기선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1층_Hp상점_슬롯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1층_골드상점_슬롯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1층_보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1층_선택지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2층_아이템보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2층_Hp상점_슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층_골드상점_슬롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층_선택지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2층_시작무기선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층_HP상점_슬롯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층_골드상점_슬롯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층_보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층_선택지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -170,12 +178,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39994506668294322"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -184,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +215,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EF80DDA-EF91-49EA-9A67-DAD9ADB1287C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -302,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표12" displayName="표12" ref="A2:H14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88A1EDAD-C0E4-47FA-9EA8-C4281BC20522}" name="표12" displayName="표12" ref="A2:H14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:H14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="2" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" name="Normal"/>
-    <tableColumn id="4" name="Rare"/>
-    <tableColumn id="5" name="Cursed"/>
-    <tableColumn id="6" name="Weapon"/>
-    <tableColumn id="7" name="Hp"/>
-    <tableColumn id="8" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{8905AFDC-805B-4BF7-B2A6-9468FE283528}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{297F260F-FB78-4AC0-9CD1-46B0DB9FB70F}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{02550E7E-7F3B-47FA-8A9F-0E3B860BA2E9}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{F8690D8B-B56C-4338-A7F6-BD7D1A9F3015}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{ECDD758E-5962-47E3-831D-9C16381D31BC}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{3631A8A0-60E1-4EC8-9FC6-917702895C70}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{0E05373C-F171-4DC6-891E-7A0F4F6CE8E3}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{010F7BC2-EDCA-4B00-89C5-E9208B7DED5E}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -335,7 +361,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -347,7 +373,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -394,6 +420,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC105544-1EED-4AF3-87C3-A3C42026411F}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -616,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -624,28 +684,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -653,10 +713,10 @@
         <v>9000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -671,30 +731,30 @@
         <v>2000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>9001</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -704,8 +764,8 @@
       <c r="A5">
         <v>9002</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
         <v>4000</v>
@@ -730,8 +790,8 @@
       <c r="A6">
         <v>9003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
         <v>4000</v>
@@ -757,7 +817,7 @@
         <v>9004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -782,37 +842,37 @@
       <c r="A8">
         <v>9005</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>9100</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -827,30 +887,30 @@
         <v>2000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <v>9101</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -860,8 +920,8 @@
       <c r="A11">
         <v>9102</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C11">
         <v>4000</v>
@@ -886,8 +946,8 @@
       <c r="A12">
         <v>9103</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>4000</v>
@@ -912,8 +972,8 @@
       <c r="A13">
         <v>9104</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -938,26 +998,26 @@
       <c r="A14">
         <v>9105</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C86812E-10DB-4ECC-BE23-710B03893EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECB091B-EB5C-4BC2-8970-C70450B0A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9A91A7D-1CC1-4F66-A2EA-1E52A848A882}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B1ADD93-A34C-4AB3-BE72-8159B80A4757}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EF80DDA-EF91-49EA-9A67-DAD9ADB1287C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{289E6CDF-9ADC-493A-AD3E-C0578CBE4898}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88A1EDAD-C0E4-47FA-9EA8-C4281BC20522}" name="표12" displayName="표12" ref="A2:H14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E3D547-4057-43E8-9C01-6B4DEE2DD0F3}" name="표12" displayName="표12" ref="A2:H14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:H14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8905AFDC-805B-4BF7-B2A6-9468FE283528}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{297F260F-FB78-4AC0-9CD1-46B0DB9FB70F}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{02550E7E-7F3B-47FA-8A9F-0E3B860BA2E9}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{F8690D8B-B56C-4338-A7F6-BD7D1A9F3015}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{ECDD758E-5962-47E3-831D-9C16381D31BC}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{3631A8A0-60E1-4EC8-9FC6-917702895C70}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{0E05373C-F171-4DC6-891E-7A0F4F6CE8E3}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{010F7BC2-EDCA-4B00-89C5-E9208B7DED5E}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{92016688-0E8E-4151-B545-D60A323D5346}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{93600C0F-39A0-4799-A886-44214D8EE2F6}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{08260BDB-3C9F-4BC7-B430-D4F0EB2F3C99}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{C301DB4C-F898-4E0D-B458-A52DE1F5D436}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{BC3478E1-9B69-46B5-ADF4-38C1CE22937E}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{D78023C4-5358-46BC-A3A7-6D7869E28B57}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{6F3ADEB1-E08C-4891-9B0C-06069AB80449}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{E2FB0AF9-6D39-4676-9F2E-02B1ED018CEA}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC105544-1EED-4AF3-87C3-A3C42026411F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641ECDDB-EA8F-4781-B721-5E9D7A2594D1}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECB091B-EB5C-4BC2-8970-C70450B0A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97613621-E3FB-47E2-B9C4-3B38711BF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B1ADD93-A34C-4AB3-BE72-8159B80A4757}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FF50EBD-3D26-4F05-91D5-68F0054A263F}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{289E6CDF-9ADC-493A-AD3E-C0578CBE4898}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{730344C2-2979-4603-BDD7-704D443A9AE1}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E3D547-4057-43E8-9C01-6B4DEE2DD0F3}" name="표12" displayName="표12" ref="A2:H14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:H14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD7CC9E7-6BC4-40D2-9C43-2813F0786C5F}" name="표12" displayName="표12" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{92016688-0E8E-4151-B545-D60A323D5346}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{93600C0F-39A0-4799-A886-44214D8EE2F6}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{08260BDB-3C9F-4BC7-B430-D4F0EB2F3C99}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{C301DB4C-F898-4E0D-B458-A52DE1F5D436}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{BC3478E1-9B69-46B5-ADF4-38C1CE22937E}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{D78023C4-5358-46BC-A3A7-6D7869E28B57}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{6F3ADEB1-E08C-4891-9B0C-06069AB80449}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{E2FB0AF9-6D39-4676-9F2E-02B1ED018CEA}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{DE863D70-D6C5-40C7-AE7D-066543F9B33C}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{CD389C7A-39F3-4DE1-A5AF-DC37165A990D}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{10262F40-5242-476F-8A2E-6C6724BA852E}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{CF00A09E-1CF2-4378-9811-49EA3D329742}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{E8030B7D-B3D7-455B-AFEB-2251D31D928E}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{B8235D16-B48E-470F-87E7-261F7B3DF8E2}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{7CDF39E6-BD66-4763-A9AA-1D47A1AE8876}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{57448C14-F112-40B9-99FA-9A5FE820CC62}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,31 +640,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641ECDDB-EA8F-4781-B721-5E9D7A2594D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EE3C1-C515-4C7B-86E8-8ABB8A2B3AE1}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -681,173 +679,173 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="B3">
         <v>9000</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4000</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="I3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
         <v>9001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4000</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
         <v>9002</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4000</v>
       </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
       <c r="E5">
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
         <v>9003</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4000</v>
       </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
       <c r="E6">
         <v>2000</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
         <v>9004</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>7000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3000</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
         <v>9005</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -855,155 +853,173 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>10000</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>9100</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4000</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="I9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9101</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4000</v>
       </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
       <c r="E10">
         <v>2000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>9102</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4000</v>
       </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
       <c r="E11">
         <v>2000</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>9103</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4000</v>
       </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
       <c r="E12">
         <v>2000</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>9104</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>7000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3000</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>9105</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1011,12 +1027,15 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>10000</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97613621-E3FB-47E2-B9C4-3B38711BF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472DEDE7-B89D-4B07-973F-57F57EA7300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FF50EBD-3D26-4F05-91D5-68F0054A263F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{963E2899-DBDF-4E7D-8B66-FEB255F62270}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{730344C2-2979-4603-BDD7-704D443A9AE1}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D9C4D170-6827-41D5-BF8B-9037716DC526}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD7CC9E7-6BC4-40D2-9C43-2813F0786C5F}" name="표12" displayName="표12" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9BFD91F-E931-487C-89FD-D9C5B0F9718C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DE863D70-D6C5-40C7-AE7D-066543F9B33C}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{CD389C7A-39F3-4DE1-A5AF-DC37165A990D}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{10262F40-5242-476F-8A2E-6C6724BA852E}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{CF00A09E-1CF2-4378-9811-49EA3D329742}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{E8030B7D-B3D7-455B-AFEB-2251D31D928E}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{B8235D16-B48E-470F-87E7-261F7B3DF8E2}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{7CDF39E6-BD66-4763-A9AA-1D47A1AE8876}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{57448C14-F112-40B9-99FA-9A5FE820CC62}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{9AC05B85-612A-4635-A27C-0F277D94827A}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{15A4BAAA-BA0D-4B5C-A8AB-4E78A5761FB3}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8F31CEAA-A3B8-44E8-8BC3-54E002261337}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{050DB851-3ED5-475C-8CB7-AE94D8FEE9FB}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{40CEB369-BA27-424E-B11B-DC6A7F1327D8}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{774F7CF0-5FCE-49F5-9B5E-EA4A5A86F8F1}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{58DC7654-7E92-4F10-9E09-373D269106FA}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{6195C335-6F03-4F90-8AA0-4A57B51711D3}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EE3C1-C515-4C7B-86E8-8ABB8A2B3AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792246A-3ABB-441B-91D2-B4E9B40127DD}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472DEDE7-B89D-4B07-973F-57F57EA7300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0D26D9-84DE-4CEE-8396-E016FC023602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{963E2899-DBDF-4E7D-8B66-FEB255F62270}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C0EA39-E906-45B1-B5E8-4E6C2088BC43}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D9C4D170-6827-41D5-BF8B-9037716DC526}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4E831973-726B-4695-B32C-F70066942293}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9BFD91F-E931-487C-89FD-D9C5B0F9718C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{317EEF85-EE1F-4484-9BE1-7F7593AFFEC4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9AC05B85-612A-4635-A27C-0F277D94827A}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{15A4BAAA-BA0D-4B5C-A8AB-4E78A5761FB3}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8F31CEAA-A3B8-44E8-8BC3-54E002261337}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{050DB851-3ED5-475C-8CB7-AE94D8FEE9FB}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{40CEB369-BA27-424E-B11B-DC6A7F1327D8}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{774F7CF0-5FCE-49F5-9B5E-EA4A5A86F8F1}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{58DC7654-7E92-4F10-9E09-373D269106FA}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{6195C335-6F03-4F90-8AA0-4A57B51711D3}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{82C8CEE1-E3B3-4727-9CC0-0B0C908B818B}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D8C346CF-48D0-411F-B145-E2AD3B394AAB}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{93988283-E121-4BBA-8366-B9A228A31B31}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{55F736F4-D460-48AF-B470-FAC7D31C25DC}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{1A803384-D94C-4A34-9A1A-79F5CB33D426}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{887B4189-8613-4114-8EBA-9DD623F8153A}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{BB0A01AE-D3B0-40A5-B9A6-F65F7E99790A}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{D64EA0EA-1D91-4167-918A-EBBE35F8D86B}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792246A-3ABB-441B-91D2-B4E9B40127DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B0A262-4552-4454-BA4C-4F75E46BE475}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0D26D9-84DE-4CEE-8396-E016FC023602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55148E79-F828-4193-8C03-551F87B61D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C0EA39-E906-45B1-B5E8-4E6C2088BC43}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CFF5F6F-725F-4705-80AC-FF85D51C82F2}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4E831973-726B-4695-B32C-F70066942293}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{66FB42EA-79EA-41B1-B970-1D46598C531B}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{317EEF85-EE1F-4484-9BE1-7F7593AFFEC4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9937B808-8906-4DB4-93DB-1A1DB353D0F3}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82C8CEE1-E3B3-4727-9CC0-0B0C908B818B}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{D8C346CF-48D0-411F-B145-E2AD3B394AAB}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{93988283-E121-4BBA-8366-B9A228A31B31}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{55F736F4-D460-48AF-B470-FAC7D31C25DC}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{1A803384-D94C-4A34-9A1A-79F5CB33D426}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{887B4189-8613-4114-8EBA-9DD623F8153A}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{BB0A01AE-D3B0-40A5-B9A6-F65F7E99790A}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{D64EA0EA-1D91-4167-918A-EBBE35F8D86B}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{71BD7E57-CFEF-4AC2-953C-B9DFD75BA079}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{77DA8544-5800-4F70-9042-73CC40BDCECE}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F89CB1B5-A273-47F4-96E2-70F56A6CDB3A}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{9AC42DC3-D9E1-471B-BA2F-E066B64E197D}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{70B8613D-C954-4EAA-B549-23D9FE9341A2}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{63AAFE3D-A58E-4419-92B3-ED4BD3259D1F}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{B693361A-2FF4-40BF-A8DC-2A7A97E27455}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{A26A4AA0-1C89-429F-BA55-CBC57412263C}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B0A262-4552-4454-BA4C-4F75E46BE475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98248F2C-5FC3-40D5-90C3-EC17C86496F8}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55148E79-F828-4193-8C03-551F87B61D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B433D4-E5ED-4CCE-9736-F9FEDBCFECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CFF5F6F-725F-4705-80AC-FF85D51C82F2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11522306-9344-42DD-A0E3-8E7B890F4E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{66FB42EA-79EA-41B1-B970-1D46598C531B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1E510E5B-6B49-4D4D-BF31-CA9587AD43CC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9937B808-8906-4DB4-93DB-1A1DB353D0F3}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5426CE40-05FD-45A3-B8DF-E3996BD07F2C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{71BD7E57-CFEF-4AC2-953C-B9DFD75BA079}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{77DA8544-5800-4F70-9042-73CC40BDCECE}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F89CB1B5-A273-47F4-96E2-70F56A6CDB3A}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{9AC42DC3-D9E1-471B-BA2F-E066B64E197D}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{70B8613D-C954-4EAA-B549-23D9FE9341A2}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{63AAFE3D-A58E-4419-92B3-ED4BD3259D1F}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{B693361A-2FF4-40BF-A8DC-2A7A97E27455}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{A26A4AA0-1C89-429F-BA55-CBC57412263C}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{35CCE4F4-17F6-4951-8124-61E6A7994C52}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{0750E497-490F-4646-947B-EC58865D08B3}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1C5B4B50-BAA5-49CF-9B2D-A34F495A201E}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{A7AED15E-1315-407B-A093-A04E0698DFF7}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{9E4B899C-A065-44A5-9106-374507BD7CED}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{B2E67283-54A6-4E80-8C68-06EF44487B97}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{466FAE8D-3A1B-4711-8C27-06F7A0A4D32A}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{19F290F7-B684-4CE2-9D83-82CAC86D8831}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98248F2C-5FC3-40D5-90C3-EC17C86496F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8813BA7-268D-40B5-924E-BCC111BF9192}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B433D4-E5ED-4CCE-9736-F9FEDBCFECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CBCCDC-1659-4A4C-9114-90F4DC276D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11522306-9344-42DD-A0E3-8E7B890F4E9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7880D1E4-F2BE-4A6E-B4AD-7638C0587187}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1E510E5B-6B49-4D4D-BF31-CA9587AD43CC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CE3D2B70-AEA3-407A-BF1A-22C2BEE8D02A}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5426CE40-05FD-45A3-B8DF-E3996BD07F2C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB7555A7-CF22-4F5F-9CFE-F4887B8FD175}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{35CCE4F4-17F6-4951-8124-61E6A7994C52}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{0750E497-490F-4646-947B-EC58865D08B3}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1C5B4B50-BAA5-49CF-9B2D-A34F495A201E}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{A7AED15E-1315-407B-A093-A04E0698DFF7}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{9E4B899C-A065-44A5-9106-374507BD7CED}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{B2E67283-54A6-4E80-8C68-06EF44487B97}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{466FAE8D-3A1B-4711-8C27-06F7A0A4D32A}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{19F290F7-B684-4CE2-9D83-82CAC86D8831}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{FD52CD31-7C33-4212-8C01-F710765E6BF4}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{92C39180-BE00-4402-8049-0672958EB182}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{198CDD43-FD1D-472D-A507-CA08824E2C8D}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{99DBC136-D080-4BA7-AA4F-A11578B4FBE1}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{EFF4630F-C34E-4EF5-BA66-7DC03F37643C}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{277E6FF4-E882-4099-9E0B-23A2342F0ABF}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{8A82C068-AD79-4437-9CBF-48F2E00005E4}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{5BED06CB-536D-4452-A4C4-677E0A0B2436}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8813BA7-268D-40B5-924E-BCC111BF9192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381E2034-39F9-477B-BAB8-436A162C58B7}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CBCCDC-1659-4A4C-9114-90F4DC276D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B217E326-9F9F-4611-9DA9-5EAB946DF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7880D1E4-F2BE-4A6E-B4AD-7638C0587187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A612C522-F1ED-43D6-A3F6-A01FA2245960}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CE3D2B70-AEA3-407A-BF1A-22C2BEE8D02A}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3710D6E0-FD78-4E1A-98C9-3C8F2A55BEFC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB7555A7-CF22-4F5F-9CFE-F4887B8FD175}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02B141E9-B5A5-42C1-AA0C-3967930C8D0F}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD52CD31-7C33-4212-8C01-F710765E6BF4}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{92C39180-BE00-4402-8049-0672958EB182}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{198CDD43-FD1D-472D-A507-CA08824E2C8D}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{99DBC136-D080-4BA7-AA4F-A11578B4FBE1}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{EFF4630F-C34E-4EF5-BA66-7DC03F37643C}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{277E6FF4-E882-4099-9E0B-23A2342F0ABF}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{8A82C068-AD79-4437-9CBF-48F2E00005E4}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{5BED06CB-536D-4452-A4C4-677E0A0B2436}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{9800F3ED-8F4E-4C67-BF1D-85CF8DD7941A}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{6F9A2F82-4673-47CA-ACF2-84AB838D0B9E}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{088CB8D9-5C4C-4ED4-9BC9-99972487DC7F}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{D0A4D8A6-4437-453D-A9D4-F20F25D929A3}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{82B3217A-4C15-43EF-80B7-854C35737AAB}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{0D744A5E-2467-4299-90C9-433F134026DB}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{D1DAEB82-7C5F-4EB8-8CF6-B32F30C9F8DE}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{43B9302F-895A-4495-A8E1-6C5F1F604A39}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381E2034-39F9-477B-BAB8-436A162C58B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8ACE67-7A55-47FF-AC8B-490F5BFF60A3}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B217E326-9F9F-4611-9DA9-5EAB946DF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA87E46-D835-4159-9543-C00F91C147FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A612C522-F1ED-43D6-A3F6-A01FA2245960}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC77687F-9D33-48BB-B14F-A9F7BAB4BABD}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3710D6E0-FD78-4E1A-98C9-3C8F2A55BEFC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8A35EFDB-0388-4F90-9743-EB40C78EF300}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02B141E9-B5A5-42C1-AA0C-3967930C8D0F}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E6643FA-4FA0-415F-B818-D723CAA1CB15}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9800F3ED-8F4E-4C67-BF1D-85CF8DD7941A}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{6F9A2F82-4673-47CA-ACF2-84AB838D0B9E}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{088CB8D9-5C4C-4ED4-9BC9-99972487DC7F}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{D0A4D8A6-4437-453D-A9D4-F20F25D929A3}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{82B3217A-4C15-43EF-80B7-854C35737AAB}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{0D744A5E-2467-4299-90C9-433F134026DB}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{D1DAEB82-7C5F-4EB8-8CF6-B32F30C9F8DE}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{43B9302F-895A-4495-A8E1-6C5F1F604A39}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{D2ED7A04-562D-48E1-AE3B-2B5F7BAD0AFA}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{77F95582-DAF3-407C-BB8D-3561728457DC}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CF1356F1-2273-4D92-89C3-3A7BCB09D31B}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{303AA223-B6DA-43BE-AD51-DEA22B611019}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{06BDF012-D3D0-4523-AC48-BA84F196342C}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{C28BF007-15BC-476C-BB72-BE0CDAAB1258}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{29A7F72D-8313-42B3-91AF-F0A127320B53}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{01BD5593-1B7E-42ED-9C7A-C6A5BC805DE9}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8ACE67-7A55-47FF-AC8B-490F5BFF60A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D44479-4AE7-47E9-84E1-A9FD45C37094}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA87E46-D835-4159-9543-C00F91C147FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CE5694-5522-41D2-952F-54F90892F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC77687F-9D33-48BB-B14F-A9F7BAB4BABD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F50637B-C12A-4435-84D4-D6C7723DF6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8A35EFDB-0388-4F90-9743-EB40C78EF300}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4CB29125-08E8-4DFD-84D4-A0E9765A2856}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E6643FA-4FA0-415F-B818-D723CAA1CB15}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B22A987-2DBF-4990-B677-D354E770DD99}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D2ED7A04-562D-48E1-AE3B-2B5F7BAD0AFA}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{77F95582-DAF3-407C-BB8D-3561728457DC}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CF1356F1-2273-4D92-89C3-3A7BCB09D31B}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{303AA223-B6DA-43BE-AD51-DEA22B611019}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{06BDF012-D3D0-4523-AC48-BA84F196342C}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{C28BF007-15BC-476C-BB72-BE0CDAAB1258}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{29A7F72D-8313-42B3-91AF-F0A127320B53}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{01BD5593-1B7E-42ED-9C7A-C6A5BC805DE9}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{1E2B11FD-F117-4F05-A643-0B984B5B55CE}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{78D96E56-9244-4A6F-ABF5-7F2B6C254844}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0AEF3542-41DB-4ABF-BB21-5EC3E42A1690}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{98A9EE63-0BDF-4676-ADF9-095CD171B3E9}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{071C3DC9-C966-40DF-A2F9-077DB57748F8}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{0FA7FCB6-6C63-4B4F-BCA5-8C3D583E2D38}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{9A5A949E-275F-4F68-B35A-CB1402B4BF70}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{66C4EAB1-D6FC-4911-A290-8F3A07DB9533}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D44479-4AE7-47E9-84E1-A9FD45C37094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD53257-6F3B-499C-94CA-2D31FAD8360E}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CE5694-5522-41D2-952F-54F90892F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBBA54F-5CC9-4AA7-8561-ABCD7AFC746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F50637B-C12A-4435-84D4-D6C7723DF6F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F2829B0-0E8D-486B-AEB6-CCA5E4F5E162}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4CB29125-08E8-4DFD-84D4-A0E9765A2856}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FF4DFDED-B7B1-407A-AEE1-BF4FF5DB1477}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B22A987-2DBF-4990-B677-D354E770DD99}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F7584AF-8435-49F6-9CE7-2E70FD7990C3}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1E2B11FD-F117-4F05-A643-0B984B5B55CE}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{78D96E56-9244-4A6F-ABF5-7F2B6C254844}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0AEF3542-41DB-4ABF-BB21-5EC3E42A1690}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{98A9EE63-0BDF-4676-ADF9-095CD171B3E9}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{071C3DC9-C966-40DF-A2F9-077DB57748F8}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{0FA7FCB6-6C63-4B4F-BCA5-8C3D583E2D38}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{9A5A949E-275F-4F68-B35A-CB1402B4BF70}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{66C4EAB1-D6FC-4911-A290-8F3A07DB9533}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{F6FAC65F-469D-4B73-9490-C742C290AF78}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{DC9CBD1E-054B-4BD1-BB19-9EDF1CA49A3D}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CC8F9A6A-94B1-4E81-B3F0-37417D597D02}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{79855766-F6CC-4505-A44A-5E954218359A}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{E3BA8E9B-6337-4E02-B528-5EF2BFFC3F59}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{D767BB3C-1C49-4637-A104-B6799C759AD6}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{6BD01AE0-D25D-490D-A2F5-B31C4F015FC5}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{95EAFC0E-31DF-4E52-907F-997F40EB4C20}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD53257-6F3B-499C-94CA-2D31FAD8360E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E589043-F62D-4CBB-B72E-C379A111480B}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBBA54F-5CC9-4AA7-8561-ABCD7AFC746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C6FDB1-2988-4D52-8907-52F731F990DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F2829B0-0E8D-486B-AEB6-CCA5E4F5E162}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACA2E608-CB67-400B-92BE-D9F24A9E6ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FF4DFDED-B7B1-407A-AEE1-BF4FF5DB1477}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3C1498F6-3DC5-42AA-A265-2439DD4072F3}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F7584AF-8435-49F6-9CE7-2E70FD7990C3}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDC5313-E08B-430B-9916-F9F3B6C467E4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F6FAC65F-469D-4B73-9490-C742C290AF78}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{DC9CBD1E-054B-4BD1-BB19-9EDF1CA49A3D}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CC8F9A6A-94B1-4E81-B3F0-37417D597D02}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{79855766-F6CC-4505-A44A-5E954218359A}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{E3BA8E9B-6337-4E02-B528-5EF2BFFC3F59}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{D767BB3C-1C49-4637-A104-B6799C759AD6}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{6BD01AE0-D25D-490D-A2F5-B31C4F015FC5}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{95EAFC0E-31DF-4E52-907F-997F40EB4C20}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{AEF1F2DA-A426-49E5-94B7-C69671A11E01}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{BC5743F0-4200-48DF-AE5A-BECCBAEAB805}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F83500B4-7585-489F-A527-DCA2AC18CD09}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{9B2BDA12-6482-4D17-8799-B6C9360C01CA}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{DFEC6548-36F4-45E5-8742-36CFAB069262}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{70EC8DCC-C7E3-4FCC-B7F6-271FB01518AB}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{80F3142E-7C21-4443-9844-0938D61BAEC5}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{6E832147-EF92-4A96-929B-C3DA19765C05}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E589043-F62D-4CBB-B72E-C379A111480B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DA4C0-3B62-42CE-B0F9-99EA6A809FF5}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C6FDB1-2988-4D52-8907-52F731F990DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BAD2E8-0258-40EC-82DD-45DE64632E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACA2E608-CB67-400B-92BE-D9F24A9E6ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2E4F6A7-CB31-4588-B724-331653AC8289}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3C1498F6-3DC5-42AA-A265-2439DD4072F3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D83CCF7-0DC7-472B-991F-BAC17972BB4C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDC5313-E08B-430B-9916-F9F3B6C467E4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15B86FD6-433B-48B3-A816-76B8AA7415B4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AEF1F2DA-A426-49E5-94B7-C69671A11E01}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{BC5743F0-4200-48DF-AE5A-BECCBAEAB805}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F83500B4-7585-489F-A527-DCA2AC18CD09}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{9B2BDA12-6482-4D17-8799-B6C9360C01CA}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{DFEC6548-36F4-45E5-8742-36CFAB069262}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{70EC8DCC-C7E3-4FCC-B7F6-271FB01518AB}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{80F3142E-7C21-4443-9844-0938D61BAEC5}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{6E832147-EF92-4A96-929B-C3DA19765C05}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{1C86A251-2F57-4A91-9AB0-AEF0B79E2BFA}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{4CBE1A86-A17B-40D4-897A-E57CC8BE595A}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F8CCD1A1-C92D-4484-8E07-1A75EF89C7D7}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{04F36ED6-FE7A-46FB-ABAF-436ED5062C7B}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{C7754E4D-91EF-4AD7-832E-D297469EFC0F}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{E38A98FD-05EB-48DB-A947-9AE4E0CFC1F9}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{169EC741-6B1C-480E-B3F7-2C0B96B2847D}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{165A7F9F-229D-4780-BE9E-61452034A547}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DA4C0-3B62-42CE-B0F9-99EA6A809FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0866F-1E05-4C75-8270-F0A6B7F8199A}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BAD2E8-0258-40EC-82DD-45DE64632E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8A0583-E4FF-43A6-85DD-2324671FE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2E4F6A7-CB31-4588-B724-331653AC8289}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{700C10C0-528F-4BCA-BB07-97F8C7678A48}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D83CCF7-0DC7-472B-991F-BAC17972BB4C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EC1A92EF-A019-4C28-8860-76A7362D5669}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15B86FD6-433B-48B3-A816-76B8AA7415B4}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20404D34-E587-487A-8422-F969C9688065}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1C86A251-2F57-4A91-9AB0-AEF0B79E2BFA}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{4CBE1A86-A17B-40D4-897A-E57CC8BE595A}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F8CCD1A1-C92D-4484-8E07-1A75EF89C7D7}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{04F36ED6-FE7A-46FB-ABAF-436ED5062C7B}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{C7754E4D-91EF-4AD7-832E-D297469EFC0F}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{E38A98FD-05EB-48DB-A947-9AE4E0CFC1F9}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{169EC741-6B1C-480E-B3F7-2C0B96B2847D}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{165A7F9F-229D-4780-BE9E-61452034A547}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{3EFB57DE-1860-445D-9239-A3FCD94906A5}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{23178B64-648A-44E8-AF34-5C06784E2260}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{841A0AFF-0E07-4695-8C67-39A15488FC8C}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{95BFE488-0168-46A5-9D80-9E20CF26B9B2}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{630EC234-87BF-4E96-A5B3-473374DC5E6A}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{116E0437-6BFC-4D23-A661-785CEAA54251}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{54CEADE2-FBD0-4833-AE2C-4AF7C439F0BB}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{73A3EE3A-C583-4DAD-BEC8-41F438BB9CAD}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0866F-1E05-4C75-8270-F0A6B7F8199A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346C4E22-D053-451D-8F6B-892485BA9984}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8A0583-E4FF-43A6-85DD-2324671FE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{422F98D7-4C2B-4813-AB7F-DAD31A81EEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{700C10C0-528F-4BCA-BB07-97F8C7678A48}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0919257-CF8A-491A-B2BD-75F00344F235}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EC1A92EF-A019-4C28-8860-76A7362D5669}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F2BE6775-1494-4D2D-A7C0-838B676B6644}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20404D34-E587-487A-8422-F969C9688065}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1D76E7D-D6D3-4BB3-A5E9-1E40B086318C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3EFB57DE-1860-445D-9239-A3FCD94906A5}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{23178B64-648A-44E8-AF34-5C06784E2260}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{841A0AFF-0E07-4695-8C67-39A15488FC8C}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{95BFE488-0168-46A5-9D80-9E20CF26B9B2}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{630EC234-87BF-4E96-A5B3-473374DC5E6A}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{116E0437-6BFC-4D23-A661-785CEAA54251}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{54CEADE2-FBD0-4833-AE2C-4AF7C439F0BB}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{73A3EE3A-C583-4DAD-BEC8-41F438BB9CAD}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{9DBC14E4-44DC-4F3B-A38F-2E382CD79D76}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{768438CD-6EC1-4E7B-8DE4-000BF5E144D0}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FF61E9D7-94A2-406E-BB6D-A55D330062D2}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB79517D-5770-49A7-96C3-B1DAB7FA092C}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{C64DB04E-AA16-41A8-A898-46C89B180F28}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{69314A7E-A8D4-4365-8F22-F35FE1DA525A}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{7E3E57A7-D7FD-49B1-AB96-3798CCCF7580}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{617BA542-5C5F-4BC5-B398-2D893F68047D}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346C4E22-D053-451D-8F6B-892485BA9984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D1C304-D70F-47CA-9143-D54187A4F214}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/DropGameData.xlsx
+++ b/_GameData/DropGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{422F98D7-4C2B-4813-AB7F-DAD31A81EEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED0B05DD-6127-496F-88C9-2FF6985258F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0919257-CF8A-491A-B2BD-75F00344F235}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE0E4368-C04C-4375-BB67-83F1E4B04BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="DropGameData" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F2BE6775-1494-4D2D-A7C0-838B676B6644}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B6ED3112-DB32-4EE7-8E7A-1B96122B1E21}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -328,17 +328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1D76E7D-D6D3-4BB3-A5E9-1E40B086318C}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64A5B2E8-4738-4485-9208-5CE9B22AA006}" name="DropTable" displayName="DropTable" ref="B2:I14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:I14" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9DBC14E4-44DC-4F3B-A38F-2E382CD79D76}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{768438CD-6EC1-4E7B-8DE4-000BF5E144D0}" name="#메모" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FF61E9D7-94A2-406E-BB6D-A55D330062D2}" name="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB79517D-5770-49A7-96C3-B1DAB7FA092C}" name="Rare"/>
-    <tableColumn id="5" xr3:uid="{C64DB04E-AA16-41A8-A898-46C89B180F28}" name="Cursed"/>
-    <tableColumn id="6" xr3:uid="{69314A7E-A8D4-4365-8F22-F35FE1DA525A}" name="Weapon"/>
-    <tableColumn id="7" xr3:uid="{7E3E57A7-D7FD-49B1-AB96-3798CCCF7580}" name="Hp"/>
-    <tableColumn id="8" xr3:uid="{617BA542-5C5F-4BC5-B398-2D893F68047D}" name="Gold"/>
+    <tableColumn id="1" xr3:uid="{019E9649-3870-4F3A-BC87-927B96323760}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{DA7D9E55-86F2-45A9-AAA2-F153380627B8}" name="#메모" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6F70DACB-E33C-40C5-BC65-C57210BF266A}" name="Normal"/>
+    <tableColumn id="4" xr3:uid="{2A91379A-8DEA-446A-8033-0D5E031D8CF6}" name="Rare"/>
+    <tableColumn id="5" xr3:uid="{C1195CCF-C92A-466D-9BE4-A22ADF6D7410}" name="Cursed"/>
+    <tableColumn id="6" xr3:uid="{873ED3F1-0705-47BD-85D3-A3299CAA4FAB}" name="Weapon"/>
+    <tableColumn id="7" xr3:uid="{4F45114E-926C-4310-A43A-8B88E8DB08D5}" name="Hp"/>
+    <tableColumn id="8" xr3:uid="{94B3867D-B132-49AA-A623-848B6DBC48E8}" name="Gold"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D1C304-D70F-47CA-9143-D54187A4F214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C774E898-CC87-4476-ABEA-7AF595CEB48E}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
